--- a/data/media/prime1/english/Words.xlsx
+++ b/data/media/prime1/english/Words.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$C$1:$F$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$C$1:$F$252</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="492">
   <si>
     <t>Word</t>
   </si>
@@ -1464,6 +1464,36 @@
   </si>
   <si>
     <t>على / فوق</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
+    <t>You are</t>
+  </si>
+  <si>
+    <t>He is</t>
+  </si>
+  <si>
+    <t>She is</t>
+  </si>
+  <si>
+    <t>They are</t>
+  </si>
+  <si>
+    <t>I'm</t>
+  </si>
+  <si>
+    <t>You're</t>
+  </si>
+  <si>
+    <t>He's</t>
+  </si>
+  <si>
+    <t>She's</t>
+  </si>
+  <si>
+    <t>They're</t>
   </si>
 </sst>
 </file>
@@ -4983,13 +5013,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:F247"/>
+  <dimension ref="C1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="D244" sqref="D244"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C37" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
@@ -5063,7 +5096,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -5077,7 +5110,7 @@
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -5091,7 +5124,7 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -5105,7 +5138,7 @@
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -5119,7 +5152,7 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -5133,10 +5166,10 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>13</v>
+        <v>487</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -5147,10 +5180,10 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>15</v>
+        <v>488</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -5161,10 +5194,10 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>16</v>
+        <v>489</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -5175,10 +5208,10 @@
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>17</v>
+        <v>490</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -5189,10 +5222,10 @@
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>18</v>
+        <v>491</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -5203,10 +5236,10 @@
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -5217,10 +5250,10 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -5231,52 +5264,52 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -5287,24 +5320,24 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -5315,38 +5348,38 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>253</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -5357,38 +5390,38 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -5399,10 +5432,10 @@
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -5413,10 +5446,10 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -5427,13 +5460,13 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -5441,10 +5474,10 @@
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -5455,10 +5488,10 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -5469,38 +5502,38 @@
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -5511,13 +5544,13 @@
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -5525,13 +5558,13 @@
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -5539,69 +5572,69 @@
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -5609,13 +5642,13 @@
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -5623,24 +5656,24 @@
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -5651,10 +5684,10 @@
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -5665,13 +5698,13 @@
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -5679,24 +5712,24 @@
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>283</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>284</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -5707,41 +5740,41 @@
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -5749,55 +5782,55 @@
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>59</v>
+        <v>283</v>
       </c>
       <c r="D55" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="D56" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -5805,13 +5838,13 @@
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -5819,10 +5852,10 @@
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -5833,94 +5866,97 @@
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>301</v>
+        <v>296</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -5928,57 +5964,66 @@
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>303</v>
+        <v>298</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
       </c>
       <c r="F69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>304</v>
+        <v>299</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>305</v>
+        <v>300</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -5986,10 +6031,10 @@
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
@@ -6000,10 +6045,10 @@
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -6011,10 +6056,10 @@
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -6022,27 +6067,21 @@
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>310</v>
-      </c>
-      <c r="E76" t="b">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="F76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D77" t="s">
-        <v>311</v>
-      </c>
-      <c r="E77" t="b">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -6064,13 +6103,10 @@
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D79" t="s">
-        <v>312</v>
-      </c>
-      <c r="E79" t="b">
-        <v>1</v>
+        <v>308</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -6078,13 +6114,10 @@
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D80" t="s">
-        <v>313</v>
-      </c>
-      <c r="E80" t="b">
-        <v>1</v>
+        <v>309</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -6092,10 +6125,10 @@
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D81" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -6106,10 +6139,10 @@
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D82" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
@@ -6120,10 +6153,10 @@
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E83" t="b">
         <v>1</v>
@@ -6134,10 +6167,10 @@
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
@@ -6148,10 +6181,10 @@
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
@@ -6162,21 +6195,24 @@
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>319</v>
+        <v>314</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
       </c>
       <c r="F86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
@@ -6187,10 +6223,13 @@
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>321</v>
+        <v>316</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -6198,10 +6237,10 @@
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
@@ -6212,10 +6251,13 @@
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>323</v>
+        <v>318</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -6223,21 +6265,21 @@
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
@@ -6248,13 +6290,10 @@
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>326</v>
-      </c>
-      <c r="E93" t="b">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -6262,10 +6301,10 @@
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E94" t="b">
         <v>1</v>
@@ -6276,13 +6315,10 @@
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>328</v>
-      </c>
-      <c r="E95" t="b">
-        <v>1</v>
+        <v>323</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
@@ -6290,13 +6326,10 @@
     </row>
     <row r="96" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>329</v>
-      </c>
-      <c r="E96" t="b">
-        <v>1</v>
+        <v>324</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -6304,10 +6337,10 @@
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
@@ -6318,10 +6351,10 @@
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E98" t="b">
         <v>1</v>
@@ -6332,10 +6365,10 @@
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
@@ -6346,10 +6379,10 @@
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D100" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
@@ -6360,10 +6393,10 @@
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
@@ -6374,10 +6407,10 @@
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D102" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E102" t="b">
         <v>1</v>
@@ -6388,10 +6421,10 @@
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D103" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E103" t="b">
         <v>1</v>
@@ -6402,10 +6435,10 @@
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D104" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E104" t="b">
         <v>1</v>
@@ -6416,10 +6449,13 @@
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="D105" t="s">
-        <v>337</v>
+        <v>267</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
@@ -6427,10 +6463,13 @@
     </row>
     <row r="106" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D106" t="s">
-        <v>338</v>
+        <v>333</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -6438,10 +6477,13 @@
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D107" t="s">
-        <v>339</v>
+        <v>334</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -6449,10 +6491,13 @@
     </row>
     <row r="108" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>340</v>
+        <v>335</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -6460,10 +6505,13 @@
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D109" t="s">
-        <v>341</v>
+        <v>336</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
@@ -6471,10 +6519,10 @@
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D110" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -6482,10 +6530,10 @@
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D111" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
@@ -6493,10 +6541,10 @@
     </row>
     <row r="112" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D112" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -6504,10 +6552,10 @@
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D113" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
@@ -6515,10 +6563,10 @@
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D114" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
@@ -6526,10 +6574,10 @@
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D115" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
@@ -6537,13 +6585,10 @@
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D116" t="s">
-        <v>347</v>
-      </c>
-      <c r="E116" t="b">
-        <v>1</v>
+        <v>343</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
@@ -6551,13 +6596,10 @@
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D117" t="s">
-        <v>348</v>
-      </c>
-      <c r="E117" t="b">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
@@ -6565,10 +6607,10 @@
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D118" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
@@ -6576,13 +6618,10 @@
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D119" t="s">
-        <v>352</v>
-      </c>
-      <c r="E119" t="b">
-        <v>1</v>
+        <v>351</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
@@ -6590,10 +6629,10 @@
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D120" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
@@ -6601,10 +6640,13 @@
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>353</v>
+        <v>347</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
@@ -6612,24 +6654,24 @@
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D122" t="s">
-        <v>354</v>
+        <v>348</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
       </c>
       <c r="F122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D123" t="s">
-        <v>355</v>
-      </c>
-      <c r="E123" t="b">
-        <v>1</v>
+        <v>349</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
@@ -6637,10 +6679,10 @@
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D124" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E124" t="b">
         <v>1</v>
@@ -6651,13 +6693,10 @@
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D125" t="s">
-        <v>357</v>
-      </c>
-      <c r="E125" t="b">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
@@ -6665,10 +6704,10 @@
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D126" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
@@ -6676,24 +6715,21 @@
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D127" t="s">
-        <v>364</v>
-      </c>
-      <c r="E127" t="b">
-        <v>1</v>
+        <v>354</v>
       </c>
       <c r="F127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D128" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E128" t="b">
         <v>1</v>
@@ -6704,10 +6740,10 @@
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D129" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E129" t="b">
         <v>1</v>
@@ -6718,10 +6754,10 @@
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D130" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E130" t="b">
         <v>1</v>
@@ -6732,43 +6768,52 @@
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D131" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="F131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D132" t="s">
-        <v>367</v>
+        <v>364</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
       </c>
       <c r="F132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D133" t="s">
-        <v>360</v>
+        <v>365</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
       </c>
       <c r="F133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D134" t="s">
-        <v>361</v>
+        <v>359</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
@@ -6776,57 +6821,57 @@
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D135" t="s">
-        <v>368</v>
+        <v>366</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
       </c>
       <c r="F135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D136" t="s">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="F136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D137" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D138" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D139" t="s">
-        <v>363</v>
-      </c>
-      <c r="E139" t="b">
-        <v>1</v>
+        <v>361</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
@@ -6834,24 +6879,21 @@
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D140" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="F140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D141" t="s">
-        <v>398</v>
-      </c>
-      <c r="E141" t="b">
-        <v>1</v>
+        <v>369</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
@@ -6859,13 +6901,10 @@
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D142" t="s">
-        <v>371</v>
-      </c>
-      <c r="E142" t="b">
-        <v>1</v>
+        <v>370</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
@@ -6873,13 +6912,10 @@
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D143" t="s">
-        <v>372</v>
-      </c>
-      <c r="E143" t="b">
-        <v>1</v>
+        <v>362</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
@@ -6887,10 +6923,10 @@
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D144" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E144" t="b">
         <v>1</v>
@@ -6901,13 +6937,10 @@
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D145" t="s">
-        <v>374</v>
-      </c>
-      <c r="E145" t="b">
-        <v>1</v>
+        <v>397</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
@@ -6915,10 +6948,10 @@
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D146" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="E146" t="b">
         <v>1</v>
@@ -6929,10 +6962,10 @@
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D147" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="E147" t="b">
         <v>1</v>
@@ -6943,10 +6976,10 @@
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D148" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="E148" t="b">
         <v>1</v>
@@ -6957,10 +6990,13 @@
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D149" t="s">
-        <v>401</v>
+        <v>373</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
@@ -6968,10 +7004,13 @@
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D150" t="s">
-        <v>402</v>
+        <v>374</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
@@ -6979,10 +7018,13 @@
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D151" t="s">
-        <v>376</v>
+        <v>375</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
@@ -6990,10 +7032,13 @@
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D152" t="s">
-        <v>377</v>
+        <v>399</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
@@ -7001,10 +7046,13 @@
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D153" t="s">
-        <v>378</v>
+        <v>400</v>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
@@ -7012,13 +7060,10 @@
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D154" t="s">
-        <v>379</v>
-      </c>
-      <c r="E154" t="b">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
@@ -7026,13 +7071,10 @@
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D155" t="s">
-        <v>380</v>
-      </c>
-      <c r="E155" t="b">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
@@ -7040,13 +7082,10 @@
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D156" t="s">
-        <v>363</v>
-      </c>
-      <c r="E156" t="b">
-        <v>1</v>
+        <v>376</v>
       </c>
       <c r="F156" t="b">
         <v>0</v>
@@ -7054,13 +7093,10 @@
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D157" t="s">
-        <v>381</v>
-      </c>
-      <c r="E157" t="b">
-        <v>1</v>
+        <v>377</v>
       </c>
       <c r="F157" t="b">
         <v>0</v>
@@ -7068,13 +7104,10 @@
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D158" t="s">
-        <v>382</v>
-      </c>
-      <c r="E158" t="b">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="F158" t="b">
         <v>0</v>
@@ -7082,10 +7115,10 @@
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D159" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E159" t="b">
         <v>1</v>
@@ -7096,10 +7129,13 @@
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D160" t="s">
-        <v>403</v>
+        <v>380</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
       </c>
       <c r="F160" t="b">
         <v>0</v>
@@ -7107,10 +7143,13 @@
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D161" t="s">
-        <v>384</v>
+        <v>363</v>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
@@ -7118,10 +7157,13 @@
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D162" t="s">
-        <v>385</v>
+        <v>381</v>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
       </c>
       <c r="F162" t="b">
         <v>0</v>
@@ -7129,10 +7171,13 @@
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D163" t="s">
-        <v>386</v>
+        <v>382</v>
+      </c>
+      <c r="E163" t="b">
+        <v>1</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
@@ -7140,10 +7185,13 @@
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D164" t="s">
-        <v>404</v>
+        <v>383</v>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
@@ -7151,21 +7199,21 @@
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D165" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="F165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D166" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="F166" t="b">
         <v>0</v>
@@ -7173,13 +7221,10 @@
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D167" t="s">
-        <v>388</v>
-      </c>
-      <c r="E167" t="b">
-        <v>1</v>
+        <v>385</v>
       </c>
       <c r="F167" t="b">
         <v>0</v>
@@ -7187,13 +7232,10 @@
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D168" t="s">
-        <v>406</v>
-      </c>
-      <c r="E168" t="b">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="F168" t="b">
         <v>0</v>
@@ -7201,38 +7243,32 @@
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="D169" t="s">
-        <v>297</v>
+        <v>404</v>
       </c>
       <c r="F169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D170" t="s">
-        <v>389</v>
-      </c>
-      <c r="E170" t="b">
-        <v>1</v>
+        <v>387</v>
       </c>
       <c r="F170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D171" t="s">
-        <v>407</v>
-      </c>
-      <c r="E171" t="b">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="F171" t="b">
         <v>0</v>
@@ -7240,10 +7276,10 @@
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D172" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E172" t="b">
         <v>1</v>
@@ -7254,10 +7290,10 @@
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D173" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E173" t="b">
         <v>1</v>
@@ -7268,21 +7304,24 @@
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="D174" t="s">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="F174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D175" t="s">
-        <v>409</v>
+        <v>389</v>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
@@ -7290,10 +7329,10 @@
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D176" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="E176" t="b">
         <v>1</v>
@@ -7304,10 +7343,13 @@
     </row>
     <row r="177" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D177" t="s">
-        <v>393</v>
+        <v>390</v>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
@@ -7315,10 +7357,13 @@
     </row>
     <row r="178" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D178" t="s">
-        <v>410</v>
+        <v>408</v>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
@@ -7326,13 +7371,10 @@
     </row>
     <row r="179" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D179" t="s">
-        <v>411</v>
-      </c>
-      <c r="E179" t="b">
-        <v>1</v>
+        <v>391</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
@@ -7340,13 +7382,10 @@
     </row>
     <row r="180" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D180" t="s">
-        <v>394</v>
-      </c>
-      <c r="E180" t="b">
-        <v>1</v>
+        <v>409</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
@@ -7354,120 +7393,129 @@
     </row>
     <row r="181" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D181" t="s">
-        <v>395</v>
+        <v>392</v>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
       </c>
       <c r="F181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D182" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="D183" t="s">
-        <v>305</v>
+        <v>410</v>
       </c>
       <c r="F183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D184" t="s">
-        <v>412</v>
+        <v>411</v>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
       </c>
       <c r="F184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D185" t="s">
-        <v>413</v>
+        <v>394</v>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
       </c>
       <c r="F185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D186" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="F186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D187" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="F187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="D188" t="s">
-        <v>416</v>
+        <v>305</v>
       </c>
       <c r="F188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D189" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D190" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D191" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
@@ -7475,13 +7523,10 @@
     </row>
     <row r="192" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D192" t="s">
-        <v>427</v>
-      </c>
-      <c r="E192" t="b">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
@@ -7489,10 +7534,10 @@
     </row>
     <row r="193" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D193" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
@@ -7500,13 +7545,10 @@
     </row>
     <row r="194" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D194" t="s">
-        <v>420</v>
-      </c>
-      <c r="E194" t="b">
-        <v>1</v>
+        <v>417</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
@@ -7514,13 +7556,10 @@
     </row>
     <row r="195" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D195" t="s">
-        <v>421</v>
-      </c>
-      <c r="E195" t="b">
-        <v>1</v>
+        <v>418</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
@@ -7528,13 +7567,10 @@
     </row>
     <row r="196" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D196" t="s">
-        <v>428</v>
-      </c>
-      <c r="E196" t="b">
-        <v>1</v>
+        <v>419</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
@@ -7542,10 +7578,10 @@
     </row>
     <row r="197" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D197" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E197" t="b">
         <v>1</v>
@@ -7556,13 +7592,10 @@
     </row>
     <row r="198" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D198" t="s">
-        <v>423</v>
-      </c>
-      <c r="E198" t="b">
-        <v>1</v>
+        <v>419</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
@@ -7570,10 +7603,10 @@
     </row>
     <row r="199" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D199" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E199" t="b">
         <v>1</v>
@@ -7584,10 +7617,13 @@
     </row>
     <row r="200" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
-        <v>431</v>
+        <v>200</v>
       </c>
       <c r="D200" t="s">
-        <v>429</v>
+        <v>421</v>
+      </c>
+      <c r="E200" t="b">
+        <v>1</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
@@ -7595,10 +7631,13 @@
     </row>
     <row r="201" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D201" t="s">
-        <v>425</v>
+        <v>428</v>
+      </c>
+      <c r="E201" t="b">
+        <v>1</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -7606,10 +7645,13 @@
     </row>
     <row r="202" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
-        <v>432</v>
+        <v>201</v>
       </c>
       <c r="D202" t="s">
-        <v>430</v>
+        <v>422</v>
+      </c>
+      <c r="E202" t="b">
+        <v>1</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
@@ -7617,10 +7659,13 @@
     </row>
     <row r="203" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D203" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="E203" t="b">
+        <v>1</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
@@ -7628,10 +7673,10 @@
     </row>
     <row r="204" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D204" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E204" t="b">
         <v>1</v>
@@ -7642,13 +7687,10 @@
     </row>
     <row r="205" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D205" t="s">
-        <v>457</v>
-      </c>
-      <c r="E205" t="b">
-        <v>1</v>
+        <v>429</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
@@ -7656,13 +7698,10 @@
     </row>
     <row r="206" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D206" t="s">
-        <v>434</v>
-      </c>
-      <c r="E206" t="b">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="F206" t="b">
         <v>0</v>
@@ -7670,13 +7709,10 @@
     </row>
     <row r="207" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
-        <v>207</v>
+        <v>432</v>
       </c>
       <c r="D207" t="s">
-        <v>458</v>
-      </c>
-      <c r="E207" t="b">
-        <v>1</v>
+        <v>430</v>
       </c>
       <c r="F207" t="b">
         <v>0</v>
@@ -7684,13 +7720,10 @@
     </row>
     <row r="208" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="D208" t="s">
-        <v>390</v>
-      </c>
-      <c r="E208" t="b">
-        <v>1</v>
+        <v>426</v>
       </c>
       <c r="F208" t="b">
         <v>0</v>
@@ -7698,10 +7731,10 @@
     </row>
     <row r="209" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="D209" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E209" t="b">
         <v>1</v>
@@ -7712,10 +7745,10 @@
     </row>
     <row r="210" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D210" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="E210" t="b">
         <v>1</v>
@@ -7726,10 +7759,10 @@
     </row>
     <row r="211" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D211" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E211" t="b">
         <v>1</v>
@@ -7740,10 +7773,10 @@
     </row>
     <row r="212" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D212" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E212" t="b">
         <v>1</v>
@@ -7754,10 +7787,13 @@
     </row>
     <row r="213" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D213" t="s">
-        <v>419</v>
+        <v>390</v>
+      </c>
+      <c r="E213" t="b">
+        <v>1</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
@@ -7765,10 +7801,10 @@
     </row>
     <row r="214" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="D214" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E214" t="b">
         <v>1</v>
@@ -7779,10 +7815,10 @@
     </row>
     <row r="215" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D215" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E215" t="b">
         <v>1</v>
@@ -7793,10 +7829,10 @@
     </row>
     <row r="216" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D216" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E216" t="b">
         <v>1</v>
@@ -7807,10 +7843,10 @@
     </row>
     <row r="217" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D217" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="E217" t="b">
         <v>1</v>
@@ -7821,13 +7857,10 @@
     </row>
     <row r="218" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D218" t="s">
-        <v>442</v>
-      </c>
-      <c r="E218" t="b">
-        <v>1</v>
+        <v>419</v>
       </c>
       <c r="F218" t="b">
         <v>0</v>
@@ -7835,10 +7868,10 @@
     </row>
     <row r="219" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D219" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E219" t="b">
         <v>1</v>
@@ -7849,10 +7882,10 @@
     </row>
     <row r="220" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D220" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="E220" t="b">
         <v>1</v>
@@ -7863,10 +7896,13 @@
     </row>
     <row r="221" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D221" t="s">
-        <v>444</v>
+        <v>440</v>
+      </c>
+      <c r="E221" t="b">
+        <v>1</v>
       </c>
       <c r="F221" t="b">
         <v>0</v>
@@ -7874,10 +7910,13 @@
     </row>
     <row r="222" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D222" t="s">
-        <v>445</v>
+        <v>441</v>
+      </c>
+      <c r="E222" t="b">
+        <v>1</v>
       </c>
       <c r="F222" t="b">
         <v>0</v>
@@ -7885,10 +7924,13 @@
     </row>
     <row r="223" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D223" t="s">
-        <v>461</v>
+        <v>442</v>
+      </c>
+      <c r="E223" t="b">
+        <v>1</v>
       </c>
       <c r="F223" t="b">
         <v>0</v>
@@ -7896,10 +7938,13 @@
     </row>
     <row r="224" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D224" t="s">
-        <v>462</v>
+        <v>443</v>
+      </c>
+      <c r="E224" t="b">
+        <v>1</v>
       </c>
       <c r="F224" t="b">
         <v>0</v>
@@ -7907,10 +7952,13 @@
     </row>
     <row r="225" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D225" t="s">
-        <v>446</v>
+        <v>460</v>
+      </c>
+      <c r="E225" t="b">
+        <v>1</v>
       </c>
       <c r="F225" t="b">
         <v>0</v>
@@ -7918,13 +7966,10 @@
     </row>
     <row r="226" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D226" t="s">
-        <v>447</v>
-      </c>
-      <c r="E226" t="b">
-        <v>1</v>
+        <v>444</v>
       </c>
       <c r="F226" t="b">
         <v>0</v>
@@ -7932,10 +7977,10 @@
     </row>
     <row r="227" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D227" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F227" t="b">
         <v>0</v>
@@ -7943,13 +7988,10 @@
     </row>
     <row r="228" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D228" t="s">
-        <v>449</v>
-      </c>
-      <c r="E228" t="b">
-        <v>1</v>
+        <v>461</v>
       </c>
       <c r="F228" t="b">
         <v>0</v>
@@ -7957,13 +7999,10 @@
     </row>
     <row r="229" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D229" t="s">
-        <v>450</v>
-      </c>
-      <c r="E229" t="b">
-        <v>1</v>
+        <v>462</v>
       </c>
       <c r="F229" t="b">
         <v>0</v>
@@ -7971,13 +8010,10 @@
     </row>
     <row r="230" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D230" t="s">
-        <v>451</v>
-      </c>
-      <c r="E230" t="b">
-        <v>1</v>
+        <v>446</v>
       </c>
       <c r="F230" t="b">
         <v>0</v>
@@ -7985,65 +8021,77 @@
     </row>
     <row r="231" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D231" t="s">
-        <v>463</v>
+        <v>447</v>
+      </c>
+      <c r="E231" t="b">
+        <v>1</v>
       </c>
       <c r="F231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D232" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="F232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D233" t="s">
-        <v>452</v>
+        <v>449</v>
+      </c>
+      <c r="E233" t="b">
+        <v>1</v>
       </c>
       <c r="F233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D234" t="s">
-        <v>465</v>
+        <v>450</v>
+      </c>
+      <c r="E234" t="b">
+        <v>1</v>
       </c>
       <c r="F234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D235" t="s">
-        <v>466</v>
+        <v>451</v>
+      </c>
+      <c r="E235" t="b">
+        <v>1</v>
       </c>
       <c r="F235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D236" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F236" t="b">
         <v>1</v>
@@ -8051,65 +8099,65 @@
     </row>
     <row r="237" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D237" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D238" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="F238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D239" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D240" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D241" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="D242" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="F242" t="b">
         <v>0</v>
@@ -8117,10 +8165,10 @@
     </row>
     <row r="243" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D243" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="F243" t="b">
         <v>0</v>
@@ -8128,10 +8176,10 @@
     </row>
     <row r="244" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D244" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="F244" t="b">
         <v>0</v>
@@ -8139,10 +8187,10 @@
     </row>
     <row r="245" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D245" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="F245" t="b">
         <v>0</v>
@@ -8150,13 +8198,10 @@
     </row>
     <row r="246" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D246" t="s">
-        <v>455</v>
-      </c>
-      <c r="E246" t="b">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="F246" t="b">
         <v>0</v>
@@ -8164,15 +8209,73 @@
     </row>
     <row r="247" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
+        <v>195</v>
+      </c>
+      <c r="D247" t="s">
+        <v>419</v>
+      </c>
+      <c r="F247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>239</v>
+      </c>
+      <c r="D248" t="s">
+        <v>453</v>
+      </c>
+      <c r="F248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>242</v>
+      </c>
+      <c r="D249" t="s">
+        <v>481</v>
+      </c>
+      <c r="F249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>243</v>
+      </c>
+      <c r="D250" t="s">
+        <v>454</v>
+      </c>
+      <c r="F250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>240</v>
+      </c>
+      <c r="D251" t="s">
+        <v>455</v>
+      </c>
+      <c r="E251" t="b">
+        <v>1</v>
+      </c>
+      <c r="F251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
         <v>241</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D252" t="s">
         <v>456</v>
       </c>
-      <c r="E247" t="b">
-        <v>1</v>
-      </c>
-      <c r="F247" t="b">
+      <c r="E252" t="b">
+        <v>1</v>
+      </c>
+      <c r="F252" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/media/prime1/english/Words.xlsx
+++ b/data/media/prime1/english/Words.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="493">
   <si>
     <t>Word</t>
   </si>
@@ -1494,6 +1494,9 @@
   </si>
   <si>
     <t>They're</t>
+  </si>
+  <si>
+    <t>Mouth</t>
   </si>
 </sst>
 </file>
@@ -5015,8 +5018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C37" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>83</v>
+        <v>492</v>
       </c>
       <c r="D84" t="s">
         <v>312</v>
